--- a/bin/tests/data/spreadsheets/test_SGA_onePat_Kraken2.xlsx
+++ b/bin/tests/data/spreadsheets/test_SGA_onePat_Kraken2.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="55">
   <si>
     <t xml:space="preserve">patient ID</t>
   </si>
@@ -115,7 +115,7 @@
     <t xml:space="preserve">meconium</t>
   </si>
   <si>
-    <t xml:space="preserve">Kraken2</t>
+    <t xml:space="preserve">Kraken 2</t>
   </si>
   <si>
     <t xml:space="preserve">RDP</t>
@@ -359,7 +359,7 @@
   <dimension ref="A1:AB754"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Z13" activeCellId="0" sqref="Z13"/>
+      <selection pane="topLeft" activeCell="Z18" activeCellId="0" sqref="Z18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -643,8 +643,9 @@
       <c r="Y3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="Z3" s="8" t="s">
-        <v>31</v>
+      <c r="Z3" s="8" t="str">
+        <f aca="false">Z$2</f>
+        <v>Kraken 2</v>
       </c>
       <c r="AA3" s="8" t="s">
         <v>32</v>
@@ -736,8 +737,9 @@
       <c r="Y4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="Z4" s="8" t="s">
-        <v>31</v>
+      <c r="Z4" s="8" t="str">
+        <f aca="false">Z$2</f>
+        <v>Kraken 2</v>
       </c>
       <c r="AA4" s="8" t="s">
         <v>32</v>
@@ -829,8 +831,9 @@
       <c r="Y5" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="Z5" s="8" t="s">
-        <v>31</v>
+      <c r="Z5" s="8" t="str">
+        <f aca="false">Z$2</f>
+        <v>Kraken 2</v>
       </c>
       <c r="AA5" s="8" t="s">
         <v>32</v>
@@ -922,8 +925,9 @@
       <c r="Y6" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="Z6" s="8" t="s">
-        <v>31</v>
+      <c r="Z6" s="8" t="str">
+        <f aca="false">Z$2</f>
+        <v>Kraken 2</v>
       </c>
       <c r="AA6" s="8" t="s">
         <v>32</v>
@@ -1015,8 +1019,9 @@
       <c r="Y7" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="Z7" s="8" t="s">
-        <v>31</v>
+      <c r="Z7" s="8" t="str">
+        <f aca="false">Z$2</f>
+        <v>Kraken 2</v>
       </c>
       <c r="AA7" s="8" t="s">
         <v>32</v>
@@ -1108,8 +1113,9 @@
       <c r="Y8" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="Z8" s="8" t="s">
-        <v>31</v>
+      <c r="Z8" s="8" t="str">
+        <f aca="false">Z$2</f>
+        <v>Kraken 2</v>
       </c>
       <c r="AA8" s="8" t="s">
         <v>32</v>
@@ -1201,8 +1207,9 @@
       <c r="Y9" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="Z9" s="8" t="s">
-        <v>31</v>
+      <c r="Z9" s="8" t="str">
+        <f aca="false">Z$2</f>
+        <v>Kraken 2</v>
       </c>
       <c r="AA9" s="8" t="s">
         <v>32</v>
@@ -1293,8 +1300,9 @@
       <c r="Y10" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="Z10" s="8" t="s">
-        <v>31</v>
+      <c r="Z10" s="8" t="str">
+        <f aca="false">Z$2</f>
+        <v>Kraken 2</v>
       </c>
       <c r="AA10" s="8" t="s">
         <v>32</v>
@@ -1386,8 +1394,9 @@
       <c r="Y11" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="Z11" s="8" t="s">
-        <v>31</v>
+      <c r="Z11" s="8" t="str">
+        <f aca="false">Z$2</f>
+        <v>Kraken 2</v>
       </c>
       <c r="AA11" s="8" t="s">
         <v>32</v>
@@ -1479,8 +1488,9 @@
       <c r="Y12" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="Z12" s="8" t="s">
-        <v>31</v>
+      <c r="Z12" s="8" t="str">
+        <f aca="false">Z$2</f>
+        <v>Kraken 2</v>
       </c>
       <c r="AA12" s="8" t="s">
         <v>32</v>
@@ -1562,8 +1572,9 @@
       <c r="Y13" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="Z13" s="8" t="s">
-        <v>31</v>
+      <c r="Z13" s="8" t="str">
+        <f aca="false">Z$2</f>
+        <v>Kraken 2</v>
       </c>
       <c r="AA13" s="8" t="s">
         <v>32</v>
